--- a/data/trans_dic/P42_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P42_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en ERTE o cese de actividad</t>
+          <t>Población que se encuentra en ERTE o cese de actividad (tasa de respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,11%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>22,69%</t>
-        </is>
-      </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,52; 39,64</t>
+          <t>3,49; 10,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 21,69</t>
+          <t>0,71; 6,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,93</t>
+          <t>0,0; 4,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,26</t>
+          <t>0,0; 6,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,06; 35,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 22,64</t>
+          <t>1,23; 7,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>0,57; 5,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,13; 33,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 17,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,72</t>
+          <t>3,09; 8,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,59</t>
+          <t>0,72; 4,53</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,27</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,03</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>7,57%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,97; 28,27</t>
+          <t>7,86; 19,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 19,74</t>
+          <t>3,18; 16,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 9,05</t>
+          <t>1,41; 6,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 6,66</t>
+          <t>0,79; 5,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,07; 37,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,93; 24,05</t>
+          <t>12,83; 23,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 10,34</t>
+          <t>5,1; 14,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 10,11</t>
+          <t>1,84; 7,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,85; 29,74</t>
+          <t>1,66; 7,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 17,96</t>
+          <t>0,0; 3,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 7,92</t>
+          <t>11,4; 19,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,86</t>
+          <t>4,93; 12,91</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,02; 5,55</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 5,0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,34</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>6,22%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,43; 25,17</t>
+          <t>8,67; 19,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 30,52</t>
+          <t>3,7; 16,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 5,42</t>
+          <t>0,66; 4,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,35</t>
+          <t>0,32; 3,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,6; 21,55</t>
+          <t>0,0; 1,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 12,65</t>
+          <t>6,67; 13,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,67</t>
+          <t>3,21; 8,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 8,29</t>
+          <t>1,45; 5,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,86; 21,6</t>
+          <t>2,15; 6,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,78; 19,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,59</t>
+          <t>8,95; 15,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,96</t>
+          <t>4,29; 10,61</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 4,0</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,62; 3,98</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,04</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,08%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,18; 26,17</t>
+          <t>8,89; 19,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 12,28</t>
+          <t>3,68; 9,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,31</t>
+          <t>1,19; 4,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,43</t>
+          <t>0,84; 4,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,15; 25,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 15,19</t>
+          <t>6,79; 12,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 8,76</t>
+          <t>3,18; 8,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,24</t>
+          <t>1,36; 5,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,11; 23,07</t>
+          <t>0,95; 4,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,33; 12,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,9</t>
+          <t>8,88; 14,87</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,68</t>
+          <t>4,08; 7,97</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 4,23</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 3,37</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,05%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,2%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,59; 20,33</t>
+          <t>3,86; 9,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 8,77</t>
+          <t>0,43; 3,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,67</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,11</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,32; 47,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,2; 23,45</t>
+          <t>4,67; 14,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,23</t>
+          <t>0,87; 6,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 11,5</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,13; 26,99</t>
+          <t>0,42; 3,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 12,32</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,34</t>
+          <t>4,87; 10,3</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,73</t>
+          <t>0,88; 4,12</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 1,52</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,39; 2,31</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,15</t>
         </is>
       </c>
     </row>
@@ -1356,12 +1531,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>33,03%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1396,20 +1571,35 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,2%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 2,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,86</t>
+          <t>0,0; 2,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 75,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,0; 0,88</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0,0; 0,99</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>4,12%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,68; 21,79</t>
+          <t>7,41; 11,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,06; 13,37</t>
+          <t>3,08; 6,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,24</t>
+          <t>1,01; 2,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,14</t>
+          <t>0,78; 2,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,62; 25,58</t>
+          <t>0,0; 0,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,52; 13,19</t>
+          <t>6,52; 9,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,75</t>
+          <t>2,94; 5,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,05; 5,92</t>
+          <t>1,17; 2,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,95; 22,0</t>
+          <t>1,33; 2,59</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,43; 12,12</t>
+          <t>0,0; 0,48</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,55; 4,38</t>
+          <t>7,37; 9,79</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,27</t>
+          <t>3,4; 5,27</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 2,17</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 2,09</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra en ERTE o cese de actividad (tasa de respuesta: 99,85%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>33585</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11772</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6250</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15847</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8875</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>49432</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>20647</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6250</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>17769; 55683</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3528; 31530</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23663</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 31010</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5651; 33977</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2668; 26423</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>29996; 77555</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6953; 43775</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23615</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 30991</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>69502</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>37978</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>19359</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13789</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>91569</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>44715</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18812</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18727</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2966</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>161070</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>82693</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>38170</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>32515</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2966</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>44280; 111147</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18239; 97337</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7947; 37029</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4723; 32635</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>66326; 122038</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>26469; 76626</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9362; 36642</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8568; 36737</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16835</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>123218; 209265</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>53798; 141028</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>21724; 59627</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>18919; 55514</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14458</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>88512</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>48822</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13003</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8469</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2504</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>67780</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>37998</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>21947</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>26578</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>156292</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>86820</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>34949</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>35046</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>2504</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>57908; 129823</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>25395; 110775</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4494; 31887</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2175; 22651</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11907</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>45899; 92446</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>22768; 59497</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10409; 38230</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15312; 44150</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>121400; 208018</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>59902; 148217</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>20417; 55911</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>22520; 55445</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14398</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>83601</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>39565</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16693</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>13310</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>66687</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>37552</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>18534</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>13742</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>150288</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>77117</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>35227</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>27052</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>56342; 125708</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23645; 62113</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7672; 31450</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5366; 25756</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>47379; 90705</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>21765; 58487</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9178; 36138</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>6266; 26374</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>118346; 198130</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>54093; 105735</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>21088; 55742</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>16079; 43764</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>30742</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8391</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1690</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3238</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>39673</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>12113</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4065</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>8090</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>70415</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>20504</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5755</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>11328</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>19706; 50705</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2125; 19248</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8562</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 11311</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>23448; 71728</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4445; 31724</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12693</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2142; 18939</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 11382</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>49318; 104252</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8857; 41328</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1664; 15266</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>3950; 23274</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0; 11625</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2217</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2486</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2217</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2486</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11463</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11583</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11264</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12510</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>308158</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>149015</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>55432</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>45055</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2504</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>281556</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>141253</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>63357</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>67136</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>4985</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>589714</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>290268</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>118789</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>112191</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>7489</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>253996; 381429</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>105687; 218102</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>34724; 86882</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>26810; 72869</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 11801</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>234365; 336446</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>105913; 185396</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>42195; 88011</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>48191; 93668</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 17025</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>517689; 687911</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>239466; 371186</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>88397; 153302</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>84010; 147287</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2013; 21872</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>